--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H2">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I2">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J2">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08305618975619</v>
+        <v>2.324764666666667</v>
       </c>
       <c r="N2">
-        <v>2.08305618975619</v>
+        <v>6.974294</v>
       </c>
       <c r="O2">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638302</v>
       </c>
       <c r="P2">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638301</v>
       </c>
       <c r="Q2">
-        <v>3.355927115696375</v>
+        <v>4.879420661690667</v>
       </c>
       <c r="R2">
-        <v>3.355927115696375</v>
+        <v>43.914785955216</v>
       </c>
       <c r="S2">
-        <v>0.003496279578207253</v>
+        <v>0.004842815401780955</v>
       </c>
       <c r="T2">
-        <v>0.003496279578207253</v>
+        <v>0.004842815401780953</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H3">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I3">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J3">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.2737616600021</v>
+        <v>19.27491966666667</v>
       </c>
       <c r="N3">
-        <v>19.2737616600021</v>
+        <v>57.824759</v>
       </c>
       <c r="O3">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842666</v>
       </c>
       <c r="P3">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842665</v>
       </c>
       <c r="Q3">
-        <v>31.05117360460681</v>
+        <v>40.45589758933067</v>
       </c>
       <c r="R3">
-        <v>31.05117360460681</v>
+        <v>364.103078303976</v>
       </c>
       <c r="S3">
-        <v>0.03234980391718886</v>
+        <v>0.04015239872157266</v>
       </c>
       <c r="T3">
-        <v>0.03234980391718886</v>
+        <v>0.04015239872157265</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H4">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I4">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J4">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.2444954895778</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N4">
-        <v>30.2444954895778</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O4">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="P4">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="Q4">
-        <v>48.7256767307418</v>
+        <v>63.72823900153334</v>
       </c>
       <c r="R4">
-        <v>48.7256767307418</v>
+        <v>573.5541510138</v>
       </c>
       <c r="S4">
-        <v>0.05076349474075824</v>
+        <v>0.06325015176249807</v>
       </c>
       <c r="T4">
-        <v>0.05076349474075824</v>
+        <v>0.06325015176249806</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H5">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I5">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J5">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08305618975619</v>
+        <v>2.324764666666667</v>
       </c>
       <c r="N5">
-        <v>2.08305618975619</v>
+        <v>6.974294</v>
       </c>
       <c r="O5">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638302</v>
       </c>
       <c r="P5">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638301</v>
       </c>
       <c r="Q5">
-        <v>32.52190114301852</v>
+        <v>36.90597307452378</v>
       </c>
       <c r="R5">
-        <v>32.52190114301852</v>
+        <v>332.153757670714</v>
       </c>
       <c r="S5">
-        <v>0.03388204060779078</v>
+        <v>0.03662910562851315</v>
       </c>
       <c r="T5">
-        <v>0.03388204060779078</v>
+        <v>0.03662910562851315</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H6">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I6">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J6">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.2737616600021</v>
+        <v>19.27491966666667</v>
       </c>
       <c r="N6">
-        <v>19.2737616600021</v>
+        <v>57.824759</v>
       </c>
       <c r="O6">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842666</v>
       </c>
       <c r="P6">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842665</v>
       </c>
       <c r="Q6">
-        <v>300.9133284273309</v>
+        <v>305.9921188717921</v>
       </c>
       <c r="R6">
-        <v>300.9133284273309</v>
+        <v>2753.929069846129</v>
       </c>
       <c r="S6">
-        <v>0.3134982044365813</v>
+        <v>0.303696575646842</v>
       </c>
       <c r="T6">
-        <v>0.3134982044365813</v>
+        <v>0.3036965756468419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H7">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I7">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J7">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.2444954895778</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N7">
-        <v>30.2444954895778</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O7">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="P7">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="Q7">
-        <v>472.1948919427107</v>
+        <v>482.0147381723139</v>
       </c>
       <c r="R7">
-        <v>472.1948919427107</v>
+        <v>4338.132643550825</v>
       </c>
       <c r="S7">
-        <v>0.4919431503477402</v>
+        <v>0.4783986788090296</v>
       </c>
       <c r="T7">
-        <v>0.4919431503477402</v>
+        <v>0.4783986788090295</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H8">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I8">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J8">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08305618975619</v>
+        <v>2.324764666666667</v>
       </c>
       <c r="N8">
-        <v>2.08305618975619</v>
+        <v>6.974294</v>
       </c>
       <c r="O8">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638302</v>
       </c>
       <c r="P8">
-        <v>0.04036827853697785</v>
+        <v>0.04473923998638301</v>
       </c>
       <c r="Q8">
-        <v>2.869931331407152</v>
+        <v>3.292015552938667</v>
       </c>
       <c r="R8">
-        <v>2.869931331407152</v>
+        <v>29.628139976448</v>
       </c>
       <c r="S8">
-        <v>0.002989958350979814</v>
+        <v>0.003267318956088912</v>
       </c>
       <c r="T8">
-        <v>0.002989958350979814</v>
+        <v>0.003267318956088912</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H9">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I9">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J9">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.2737616600021</v>
+        <v>19.27491966666667</v>
       </c>
       <c r="N9">
-        <v>19.2737616600021</v>
+        <v>57.824759</v>
       </c>
       <c r="O9">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842666</v>
       </c>
       <c r="P9">
-        <v>0.3735130060209061</v>
+        <v>0.3709387315842665</v>
       </c>
       <c r="Q9">
-        <v>26.5544312890514</v>
+        <v>27.29451984285866</v>
       </c>
       <c r="R9">
-        <v>26.5544312890514</v>
+        <v>245.650678585728</v>
       </c>
       <c r="S9">
-        <v>0.02766499766713583</v>
+        <v>0.02708975721585195</v>
       </c>
       <c r="T9">
-        <v>0.02766499766713583</v>
+        <v>0.02708975721585194</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H10">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I10">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J10">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.2444954895778</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N10">
-        <v>30.2444954895778</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O10">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="P10">
-        <v>0.5861187154421161</v>
+        <v>0.5843220284293504</v>
       </c>
       <c r="Q10">
-        <v>41.66936333018508</v>
+        <v>42.99575062293333</v>
       </c>
       <c r="R10">
-        <v>41.66936333018508</v>
+        <v>386.9617556064</v>
       </c>
       <c r="S10">
-        <v>0.04341207035361767</v>
+        <v>0.04267319785782283</v>
       </c>
       <c r="T10">
-        <v>0.04341207035361767</v>
+        <v>0.04267319785782282</v>
       </c>
     </row>
   </sheetData>
